--- a/CorreosInstitucionales/Server/wwwroot/assets/sol_cambio_correo_personal.xlsx
+++ b/CorreosInstitucionales/Server/wwwroot/assets/sol_cambio_correo_personal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\CorreosInstitucionales\CorreosInstitucionales\Server\wwwroot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373114F3-CD3F-48E9-84B8-D78E091318C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3081CFD1-4134-497C-8548-64D65AB1794E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>SOLICITUD DE CUENTAS DE CORREO.</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>CORREO PERSONAL ACTUAL</t>
-  </si>
-  <si>
-    <t>FORMATO C</t>
   </si>
 </sst>
 </file>
@@ -124,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,12 +140,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -280,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -302,9 +293,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -880,11 +868,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -896,24 +884,24 @@
     <col min="5" max="5" width="37.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="26.140625" style="6" customWidth="1"/>
-    <col min="8" max="9" width="54.5703125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="6"/>
+    <col min="8" max="8" width="54.5703125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
@@ -924,22 +912,19 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="81" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -962,18 +947,6 @@
         <v>18</v>
       </c>
       <c r="H4"/>
-      <c r="I4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
@@ -982,13 +955,13 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:D1048576 B1:D3 D4">
+  <conditionalFormatting sqref="B5:D1048576 B1:D3 D4">
     <cfRule type="duplicateValues" dxfId="2" priority="6313"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D4 D6:D1048576">
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="6333"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D1048576">
+  <conditionalFormatting sqref="D5:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="6336"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1254,15 +1227,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="88341f18-133c-494b-aa7b-816ea377ce3a" xsi:nil="true"/>
@@ -1271,6 +1235,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1293,14 +1266,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21224FBD-8C2F-4A8D-9F2F-BC81CE516CEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CE72B43-615C-45CC-8D73-17854FCAC874}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1309,4 +1274,12 @@
     <ds:schemaRef ds:uri="d76a1602-49b7-42db-b669-1a3cf8282f69"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21224FBD-8C2F-4A8D-9F2F-BC81CE516CEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CorreosInstitucionales/Server/wwwroot/assets/sol_cambio_correo_personal.xlsx
+++ b/CorreosInstitucionales/Server/wwwroot/assets/sol_cambio_correo_personal.xlsx
@@ -1,98 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\CorreosInstitucionales\CorreosInstitucionales\Server\wwwroot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3081CFD1-4134-497C-8548-64D65AB1794E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423CD6AD-895B-4CA6-9616-D693A6CA8369}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato-Cuentas-Inst" sheetId="1" r:id="rId1"/>
     <sheet name="ROL" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Formato-Cuentas-Inst'!$A$4:$F$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Formato-Cuentas-Inst'!$A$4:$G$4</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
+    <t>ROL QUE DESEMPEÑA (ALUMNO, DOCENTE, ADMINISTRATIVO, EGRESADO)</t>
+  </si>
+  <si>
+    <t>NOMBRE (S)</t>
+  </si>
+  <si>
     <t>SOLICITUD DE CUENTAS DE CORREO.</t>
   </si>
   <si>
     <t>ESCUELA, CENTRO O UNIDAD SOLICITANTE:</t>
   </si>
   <si>
+    <t>APELLIDO PATERNO</t>
+  </si>
+  <si>
+    <t>APELLIDO MATERNO</t>
+  </si>
+  <si>
+    <t>ROL-user</t>
+  </si>
+  <si>
+    <t>ALUMNO</t>
+  </si>
+  <si>
+    <t>EGRESADO</t>
+  </si>
+  <si>
+    <t>DOCENTE</t>
+  </si>
+  <si>
+    <t>ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>FUNCIONARIO</t>
+  </si>
+  <si>
+    <t>HONORARIOS</t>
+  </si>
+  <si>
     <t>UPIICSA</t>
   </si>
   <si>
-    <t>FECHA:</t>
-  </si>
-  <si>
     <t>POR FAVOR, PARA BRINDARLE UN MEJOR SERVICIO, LLENE COMPLETAMENTE EL ARCHIVO DE CAPTURA, CON TODA LAS LETRAS EN MAYÚSCULA Y EVITANDO LOS ACENTOS, DIÉRESIS, EÑES Y SIGNOS DE PUNTUACIÓN</t>
   </si>
   <si>
-    <t>NOMBRE (S)</t>
-  </si>
-  <si>
-    <t>APELLIDO PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO MATERNO</t>
-  </si>
-  <si>
-    <t>ROL QUE DESEMPEÑA (ALUMNO, DOCENTE, ADMINISTRATIVO, EGRESADO)</t>
-  </si>
-  <si>
-    <t>CLAVE CURP</t>
-  </si>
-  <si>
-    <t>ROL-user</t>
-  </si>
-  <si>
-    <t>ALUMNO</t>
-  </si>
-  <si>
-    <t>EGRESADO</t>
-  </si>
-  <si>
-    <t>DOCENTE</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIVO</t>
-  </si>
-  <si>
-    <t>FUNCIONARIO</t>
-  </si>
-  <si>
-    <t>HONORARIOS</t>
+    <t>CORREO INSTITUCIONAL</t>
+  </si>
+  <si>
+    <t>FECHA:                          25/04/2024</t>
+  </si>
+  <si>
+    <t>CORREO PERSONAL ACTUAL</t>
   </si>
   <si>
     <t>CORREO PERSONAL ANTERIOR</t>
-  </si>
-  <si>
-    <t>CORREO PERSONAL ACTUAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,13 +107,6 @@
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -141,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -165,6 +153,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -237,34 +238,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -273,50 +254,46 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,193 +332,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1032" name="AutoShape 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11488513-D969-C48D-19A8-28C5C9E7B661}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13807440" y="8465820"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>50849</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C3ACF89-2EC9-4F47-AF42-B9F0B6C9DA40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13430250" y="3648075"/>
-          <a:ext cx="304800" cy="317549"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="312420"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89489253-B34B-4112-899E-1E19CC66030D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13487400" y="6400800"/>
-          <a:ext cx="304800" cy="312420"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="317549"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1065DB95-217C-48AC-9E80-6ED242527A77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13487400" y="6400800"/>
-          <a:ext cx="304800" cy="317549"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -868,77 +658,71 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="54.5703125" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="29.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="42.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="5">
-        <v>45219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="81" x14ac:dyDescent="0.25">
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="81" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -946,28 +730,26 @@
       <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <mergeCells count="3">
-    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:D1048576 B1:D3 D4">
-    <cfRule type="duplicateValues" dxfId="2" priority="6313"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5512"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="6333"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5585"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="6336"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5588"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -979,307 +761,48 @@
       <selection activeCell="B13" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="bSk3JHAXcpndcbbRzDw5AQwrxoTjH7hiN+KT1NS7w8ApsbrF7evNAb/AydDiJkHmhgBCgGNvFqnNR6JhBuOuNQ==" saltValue="N6Jpa9xuvAldYcaUFRgrEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004DBCDF32938E354BA77694BDA40DE133" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="79fd5bcefd24cdc90519fc622450b636">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d76a1602-49b7-42db-b669-1a3cf8282f69" xmlns:ns3="88341f18-133c-494b-aa7b-816ea377ce3a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a8e919876b27a82e804371b4d87a241" ns2:_="" ns3:_="">
-    <xsd:import namespace="d76a1602-49b7-42db-b669-1a3cf8282f69"/>
-    <xsd:import namespace="88341f18-133c-494b-aa7b-816ea377ce3a"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d76a1602-49b7-42db-b669-1a3cf8282f69" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="2b61bc0c-9156-412f-b605-57ff87b11ec1" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="88341f18-133c-494b-aa7b-816ea377ce3a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{24106eb2-cda0-4a1d-8cbc-ce6f9c2f15cd}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="88341f18-133c-494b-aa7b-816ea377ce3a">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="88341f18-133c-494b-aa7b-816ea377ce3a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d76a1602-49b7-42db-b669-1a3cf8282f69">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D4E9990-5039-4D9E-8E30-4AD9EF639186}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d76a1602-49b7-42db-b669-1a3cf8282f69"/>
-    <ds:schemaRef ds:uri="88341f18-133c-494b-aa7b-816ea377ce3a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CE72B43-615C-45CC-8D73-17854FCAC874}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="88341f18-133c-494b-aa7b-816ea377ce3a"/>
-    <ds:schemaRef ds:uri="d76a1602-49b7-42db-b669-1a3cf8282f69"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21224FBD-8C2F-4A8D-9F2F-BC81CE516CEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CorreosInstitucionales/Server/wwwroot/assets/sol_cambio_correo_personal.xlsx
+++ b/CorreosInstitucionales/Server/wwwroot/assets/sol_cambio_correo_personal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\CorreosInstitucionales\CorreosInstitucionales\Server\wwwroot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423CD6AD-895B-4CA6-9616-D693A6CA8369}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CC6F91-5690-4E7A-86AE-0E25D478C932}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="ROL" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Formato-Cuentas-Inst'!$A$4:$G$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Formato-Cuentas-Inst'!$A$4:$H$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ROL QUE DESEMPEÑA (ALUMNO, DOCENTE, ADMINISTRATIVO, EGRESADO)</t>
   </si>
@@ -74,20 +74,23 @@
     <t>CORREO INSTITUCIONAL</t>
   </si>
   <si>
-    <t>FECHA:                          25/04/2024</t>
-  </si>
-  <si>
     <t>CORREO PERSONAL ACTUAL</t>
   </si>
   <si>
     <t>CORREO PERSONAL ANTERIOR</t>
+  </si>
+  <si>
+    <t>CLAVE CURP</t>
+  </si>
+  <si>
+    <t>FECHA:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +106,13 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
@@ -129,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -138,21 +148,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -252,13 +247,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -268,33 +263,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,11 +654,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G3"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,45 +666,51 @@
     <col min="1" max="1" width="29.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="42.85546875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="28.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="E2" s="16"/>
+      <c r="G2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="18">
+        <v>45408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="81" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="81" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -722,29 +724,32 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <mergeCells count="3">
-    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:D1048576 B1:D3 D4">
+  <conditionalFormatting sqref="B5:E1048576 B1:E3 D4">
     <cfRule type="duplicateValues" dxfId="2" priority="5512"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:E3 D5:E1048576 D4">
     <cfRule type="duplicateValues" dxfId="1" priority="5585"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D1048576">
+  <conditionalFormatting sqref="D5:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="5588"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/CorreosInstitucionales/Server/wwwroot/assets/sol_cambio_correo_personal.xlsx
+++ b/CorreosInstitucionales/Server/wwwroot/assets/sol_cambio_correo_personal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\CorreosInstitucionales\CorreosInstitucionales\Server\wwwroot\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l_alo\Documents\GitHub\CorreosInstitucionales\CorreosInstitucionales\Server\wwwroot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CC6F91-5690-4E7A-86AE-0E25D478C932}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD28331F-1CFA-437B-859D-5431484A35E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato-Cuentas-Inst" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ROL QUE DESEMPEÑA (ALUMNO, DOCENTE, ADMINISTRATIVO, EGRESADO)</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>FECHA:</t>
+  </si>
+  <si>
+    <t>NUMERO DE EMPLEADO O NUMERO DE BOLETA SEGÚN SEA EL CASO</t>
   </si>
 </sst>
 </file>
@@ -263,39 +266,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -654,11 +671,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,51 +683,53 @@
     <col min="1" max="1" width="29.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="6" customWidth="1"/>
-    <col min="4" max="5" width="28.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="44.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="39.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="42.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="G2" s="17" t="s">
+      <c r="E2" s="8"/>
+      <c r="G2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="10">
         <v>45408</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="81" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -727,13 +746,16 @@
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -743,14 +765,20 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:E1048576 B1:E3 D4">
-    <cfRule type="duplicateValues" dxfId="2" priority="5512"/>
+  <conditionalFormatting sqref="B5:E1048576 B1:E3">
+    <cfRule type="duplicateValues" dxfId="4" priority="5514"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:E3 D5:E1048576 D4">
-    <cfRule type="duplicateValues" dxfId="1" priority="5585"/>
+  <conditionalFormatting sqref="D1:E3 D5:E1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="5587"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="5588"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5590"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
